--- a/github-analysis/github-analysis.xlsx
+++ b/github-analysis/github-analysis.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindaarab/Documents/a-simple-str8ts-solver/github-analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindaarab/Documents/macbook andamp/a-simple-str8ts-solver/github-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3EDE86-96EA-A546-9238-F01C1B9F16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD2DE2-6985-D940-82AC-4C9A0E6521DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{C1140580-C8E1-9C40-B280-BC1CDC82D5B6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{C1140580-C8E1-9C40-B280-BC1CDC82D5B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="GitHub Search Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Programming Languages" sheetId="2" r:id="rId2"/>
+    <sheet name="Repositories" sheetId="1" r:id="rId1"/>
+    <sheet name="Haskell repositories" sheetId="3" r:id="rId2"/>
+    <sheet name="Programming languages" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Programming Languages'!$E$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Programming Languages'!$E$4</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
   <si>
     <t>Rank</t>
   </si>
@@ -55,9 +51,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Last Updated</t>
-  </si>
-  <si>
     <t>Stars</t>
   </si>
   <si>
@@ -229,23 +222,81 @@
     <t>A solver for grid-based number puzzles (such as Sudoku, Kakuro, Str8ts, Killer Sudoku, Takuzu, …) with CLI and GUI versions.</t>
   </si>
   <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Last updated</t>
+  </si>
+  <si>
+    <t>Repositories</t>
+  </si>
+  <si>
     <t>Programming Languages</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>GitHub Search Results</t>
-  </si>
-  <si>
-    <t>The search term was "str8ts solver"</t>
+    <t>English, Portuguese</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>GitHub search results for "str8ts solver"</t>
+  </si>
+  <si>
+    <t>GitHub search results for "str8ts solver" that use Haskell as programming language</t>
+  </si>
+  <si>
+    <t>Programming language</t>
+  </si>
+  <si>
+    <t>Haskell repositories</t>
+  </si>
+  <si>
+    <t>Assignment by Universidade Federal de Santa Catarina (UFSC)</t>
+  </si>
+  <si>
+    <t>Most likely. “README.md” links to a YouTube video titled ‘T1 - Paradigmas de Programação - INE5415’. A Google search for “INE5415” points to UFSC website.</t>
+  </si>
+  <si>
+    <t>Likely. Values in columns “Language” and “Last updated” match https://github.com/alanludke/str8ts_haskell (Rank 4)</t>
+  </si>
+  <si>
+    <t>Likely. Value in column “Last updated” matches https://github.com/alanludke/str8ts_haskell (Rank 4)
+ and description is "[College] Haskell solver for str8ts puzzle".</t>
+  </si>
+  <si>
+    <t>alanludke</t>
+  </si>
+  <si>
+    <t>andrefpf</t>
+  </si>
+  <si>
+    <t>SatoshiKei</t>
+  </si>
+  <si>
+    <t>EnzoAlbornoz</t>
+  </si>
+  <si>
+    <t>jeanleopoldo</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Likely. Value in column “Last updated” kind matches https://github.com/andrefpf/str8ts_solver (Rank 10)</t>
+  </si>
+  <si>
+    <t>Most likely. “Relatório do Trabalho I - Resolvedor Str8ts - Haskell.pdf” contains the UFSC logo and "Trabalho I.pdf" seems like the original assignment document. The 2020-10-14 commit named “Added final report” likely marks a deadline. Later ones seem like cleanup.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,11 +313,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="CMU Serif Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="CMU Serif Roman"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="CMU Serif Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,16 +351,382 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="CMU Serif Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -338,7 +765,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Languages'!$C$4</c:f>
+              <c:f>'Programming languages'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -359,7 +786,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Languages'!$B$5:$B$15</c:f>
+              <c:f>'Programming languages'!$B$5:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -400,7 +827,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Languages'!$C$5:$C$15</c:f>
+              <c:f>'Programming languages'!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -442,7 +869,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-609C-8B47-8A7F-0B8C3353F2F5}"/>
+              <c16:uniqueId val="{00000000-A8C9-A449-910E-4ECA2A44D326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -456,11 +883,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="230304623"/>
-        <c:axId val="1896049232"/>
+        <c:axId val="1356028735"/>
+        <c:axId val="2001262463"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="230304623"/>
+        <c:axId val="1356028735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,7 +927,7 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1896049232"/>
+        <c:crossAx val="2001262463"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -508,7 +935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1896049232"/>
+        <c:axId val="2001262463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -557,9 +984,11 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230304623"/>
+        <c:crossAx val="1356028735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -571,6 +1000,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -578,19 +1008,13 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1160,23 +1584,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>198967</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1106899</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>170167</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>713201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>13533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44F559D-084A-DD39-89AC-CFF8EB277A8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2B2B70-118C-26DA-5318-34E94E9CB4E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1198,31 +1622,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D1FAB3F-6D15-3541-9DC4-FDBBD210421F}" name="SearchResults" displayName="SearchResults" ref="B5:H28" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D1FAB3F-6D15-3541-9DC4-FDBBD210421F}" name="SearchResults" displayName="SearchResults" ref="B5:H28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B5:H28" xr:uid="{7D1FAB3F-6D15-3541-9DC4-FDBBD210421F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9BCB1ADD-B3A1-7F4B-ADAD-98512F44DFED}" name="Rank"/>
-    <tableColumn id="2" xr3:uid="{8FD5EDEF-D76C-D148-A77C-92DC2AC14EAC}" name="Added"/>
-    <tableColumn id="3" xr3:uid="{CB10E525-A5F4-FD41-81D2-B55A32763EE1}" name="Link"/>
-    <tableColumn id="4" xr3:uid="{7DF1DB90-3E78-B44A-8506-E595F66028AE}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{92A278EC-6FA0-624E-BA4A-AC60A85D0FE2}" name="Last Updated"/>
-    <tableColumn id="6" xr3:uid="{C84534E7-EDEA-C24A-AB35-2BB9AA7F5062}" name="Stars"/>
-    <tableColumn id="7" xr3:uid="{76E51FDE-E4B9-8A4B-9E3D-5A2C6C233BAD}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{9BCB1ADD-B3A1-7F4B-ADAD-98512F44DFED}" name="Rank" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{8FD5EDEF-D76C-D148-A77C-92DC2AC14EAC}" name="Added" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CB10E525-A5F4-FD41-81D2-B55A32763EE1}" name="Link" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{7DF1DB90-3E78-B44A-8506-E595F66028AE}" name="Description" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{92A278EC-6FA0-624E-BA4A-AC60A85D0FE2}" name="Last updated" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{C84534E7-EDEA-C24A-AB35-2BB9AA7F5062}" name="Stars" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{76E51FDE-E4B9-8A4B-9E3D-5A2C6C233BAD}" name="Language" dataDxfId="17"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E65813A2-582F-2C4C-A2B1-8AEAD6D7488F}" name="Table4" displayName="Table4" ref="B4:C15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F08A2125-D322-3F43-9E5D-082840BA79C9}" name="Table6" displayName="Table6" ref="B5:J10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B5:J10" xr:uid="{F08A2125-D322-3F43-9E5D-082840BA79C9}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{6C085A7E-7E30-AE47-878F-D9A82BBAD9EE}" name="Rank" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3642B234-DFCE-1049-8EAA-20D19712DB48}" name="Added" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{F65C2422-DBF7-7E4A-96F6-CF587FFA8518}" name="Username" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C7F0C91C-D449-0249-BED2-E977A67B4764}" name="Link" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{3448DC2C-9A17-6744-B3F6-AF4BD503FB38}" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{77EF8856-9656-3A42-8934-54813BB190F1}" name="Last updated" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{C2DDB00D-5D3B-D14F-9EC7-55F9FF02FA86}" name="Programming language" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D47D9D9A-9E2B-8141-875B-DD32C4610A90}" name="Language" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F53DD2F1-B060-9140-86ED-F7D7079A401E}" name="Assignment by Universidade Federal de Santa Catarina (UFSC)" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E65813A2-582F-2C4C-A2B1-8AEAD6D7488F}" name="Languages" displayName="Languages" ref="B4:C15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B4:C15" xr:uid="{E65813A2-582F-2C4C-A2B1-8AEAD6D7488F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:C15">
     <sortCondition ref="C5:C15"/>
     <sortCondition ref="B5:B15"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{19D08D8C-6848-7143-A12B-A7A16E14AEA3}" name="Language"/>
-    <tableColumn id="2" xr3:uid="{29A6C9C6-3480-BC4E-88BD-6103F0240A8C}" name="Count"/>
+    <tableColumn id="1" xr3:uid="{19D08D8C-6848-7143-A12B-A7A16E14AEA3}" name="Programming language" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{29A6C9C6-3480-BC4E-88BD-6103F0240A8C}" name="Count" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1548,575 +1990,580 @@
   <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="1" max="2" width="15.83203125" style="1"/>
+    <col min="3" max="3" width="15.83203125" style="4"/>
+    <col min="4" max="5" width="15.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="4"/>
+    <col min="7" max="7" width="15.83203125" style="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="2" spans="2:8" ht="19" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45105</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43489</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44671</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44147</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4">
+        <v>42743</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43179</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44157</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45722</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44146</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44537</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4">
+        <v>44119</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4">
+        <v>44991</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4">
+        <v>42277</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44119</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45329</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44543</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45717</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43578</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44901</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4">
+        <v>42822</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="4">
+        <v>44144</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="4">
+        <v>45295</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4">
+        <v>45726</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="4">
+        <v>43555</v>
+      </c>
+      <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>45726</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>45105</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>45726</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>43489</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>45726</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>44671</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>45726</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>44147</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>45726</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>42743</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>45726</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
-        <v>43179</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>45726</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <v>44157</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>45726</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="H28" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F13">
-        <v>45722</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>45726</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14">
-        <v>44146</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>45726</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
-        <v>44537</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>45726</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16">
-        <v>44119</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>45726</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17">
-        <v>44991</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>45726</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18">
-        <v>42277</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>45726</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19">
-        <v>44119</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>45726</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20">
-        <v>45329</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>45726</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21">
-        <v>44543</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>45726</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22">
-        <v>45717</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>45726</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23">
-        <v>43578</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>45726</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>44901</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>45726</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25">
-        <v>42822</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>45726</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26">
-        <v>44144</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>45726</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27">
-        <v>45295</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>23</v>
-      </c>
-      <c r="C28">
-        <v>45726</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28">
-        <v>43555</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2132,116 +2579,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E846E4A6-3942-8B4F-8236-58BFF1D6C7C6}">
+  <dimension ref="B2:J10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E4" zoomScale="134" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.83203125" style="1"/>
+    <col min="3" max="4" width="15.83203125" style="4"/>
+    <col min="5" max="6" width="15.83203125" style="1"/>
+    <col min="7" max="7" width="15.83203125" style="4"/>
+    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="1"/>
+    <col min="10" max="10" width="90.83203125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="15.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45726</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7">
+        <v>44147</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="34" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45726</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7">
+        <v>44537</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45726</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7">
+        <v>44119</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="34" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45726</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7">
+        <v>44119</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45726</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7">
+        <v>44543</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{D7B49779-C4A4-2C40-A5DC-5B2FD01D58A2}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{33C7468E-6967-2A48-B679-01618064BE27}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{8A3014FA-A797-1C45-A6FC-8B38181D5710}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{6711752D-9325-0240-B256-B79EBC9468CA}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{349CD8C6-F7F5-C943-B701-121290A031F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFECC1E0-7BD5-4643-87C5-26EB3A67BCB7}">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5">
+    <row r="2" spans="2:3" ht="19" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
         <v>5</v>
       </c>
     </row>
